--- a/outputs-HGR-r202-archive/g__CAG-145.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-145.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,61 +519,61 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28366.fa</t>
+          <t>even_MAG-GUT42774.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.184890068828719</v>
+        <v>0.8709685383309707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07784265152017697</v>
+        <v>0.03361494535844198</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4314253258478198</v>
+        <v>0.02738551371195651</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01014409546220208</v>
+        <v>0.01798502850579164</v>
       </c>
       <c r="F3" t="n">
-        <v>0.295697858341082</v>
+        <v>0.05004597409283937</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4314253258478198</v>
+        <v>0.8709685383309707</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542295</t>
+          <t>s__CAG-145 sp000435715</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>s__CAG-145 sp900542295(reject)</t>
+          <t>s__CAG-145 sp000435715</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42774.fa</t>
+          <t>even_MAG-GUT85141.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8709685383309707</v>
+        <v>0.7731593106250867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03361494535844198</v>
+        <v>0.01465151297553423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02738551371195651</v>
+        <v>0.05514180012049867</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01798502850579164</v>
+        <v>0.03482682416812109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05004597409283937</v>
+        <v>0.1222205521107593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8709685383309707</v>
+        <v>0.7731593106250867</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -581,111 +581,6 @@
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp000435715</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83851.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1387535742628195</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1401094933895978</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1635843691619628</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.007836594140361731</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5497159690452582</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5497159690452582</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85090.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.2623873862263594</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03093002479015846</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2225859512830718</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.00840607702244787</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.4756905606779624</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4756905606779624</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp900545135(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85141.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.7731593106250867</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.01465151297553423</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05514180012049867</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.03482682416812109</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1222205521107593</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.7731593106250867</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__CAG-145 sp000435715</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
         <is>
           <t>s__CAG-145 sp000435715</t>
         </is>
